--- a/results/minimal_seats-Spain.xlsx
+++ b/results/minimal_seats-Spain.xlsx
@@ -14,87 +14,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Key</t>
   </si>
   <si>
-    <t xml:space="preserve">CC </t>
-  </si>
-  <si>
-    <t>CiU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA </t>
-  </si>
-  <si>
-    <t>ERC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IU </t>
-  </si>
-  <si>
-    <t>PAR</t>
-  </si>
-  <si>
-    <t>PNV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP </t>
-  </si>
-  <si>
-    <t>PSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UV </t>
-  </si>
-  <si>
-    <t>BNG</t>
-  </si>
-  <si>
-    <t>CHA</t>
-  </si>
-  <si>
-    <t>ICV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NB </t>
-  </si>
-  <si>
-    <t>UPD</t>
-  </si>
-  <si>
-    <t>AMA</t>
-  </si>
-  <si>
-    <t>FAC</t>
-  </si>
-  <si>
-    <t>C -</t>
-  </si>
-  <si>
-    <t>CPM</t>
-  </si>
-  <si>
-    <t>ECP</t>
-  </si>
-  <si>
-    <t>EHB</t>
-  </si>
-  <si>
-    <t>P -</t>
-  </si>
-  <si>
-    <t>PMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL </t>
+    <t>CC - Canary Coalition  (Coalición Canaria, CC)</t>
+  </si>
+  <si>
+    <t>CiU - Convergence and Union (Convergencia i Unió, CiU)</t>
+  </si>
+  <si>
+    <t>EA - Basque Solidarity (Eusko Alkartasuna, EA)</t>
+  </si>
+  <si>
+    <t>ERC - Catalonian Left Republicans (Esquerra Republicana de Cataluña, ERC)</t>
+  </si>
+  <si>
+    <t>HB - Unity of the People (Herri Batasuna , HB)</t>
+  </si>
+  <si>
+    <t>IU - United Left (Izquierda Unida, IU)</t>
+  </si>
+  <si>
+    <t>PAR - Regionalist Party Aragon (Partido Aragones Regionalista, PAR)</t>
+  </si>
+  <si>
+    <t>PNV/EAJ - Basque Nationalist Party (Partido Nacionalista Vasco , PNV/EAJ)</t>
+  </si>
+  <si>
+    <t>PP - Popular Party (Partido Popular, PP)</t>
+  </si>
+  <si>
+    <t>PSOE - Spanish Socialist Party (Partido Socialista Obrero Español, PSOE)</t>
+  </si>
+  <si>
+    <t>UV - Valencian Union (Unid Valenciana, UV)</t>
+  </si>
+  <si>
+    <t>BNG - Galician Nationalist Block  (Bloque Nacionalista Gallego, BNG)</t>
+  </si>
+  <si>
+    <t>CHA - Aragonese Union (Junta Aragonesista, CHA)</t>
+  </si>
+  <si>
+    <t>ICV - Initiative for Catalonia Greens (niciativa per Catalunya Verds, ICV)</t>
+  </si>
+  <si>
+    <t>PA - Andalusian Party ( Partido Andalucista, PA)</t>
+  </si>
+  <si>
+    <t>NB - Navarra Yes (Nafarroa Bai, NB)</t>
+  </si>
+  <si>
+    <t>UPD - Progress and Democracy Union (Unión Progreso y Democracia, UPD)</t>
+  </si>
+  <si>
+    <t>AMAIUR - Amiaur (Amiaur, AMAIUR)</t>
+  </si>
+  <si>
+    <t>CC - Compromis Coalition (Coalició Compromís, CC)</t>
+  </si>
+  <si>
+    <t>FAC - For an Alternative Cantabria  (Foro Alternativa Cantabria, FAC)</t>
+  </si>
+  <si>
+    <t>C - Citizens–Party of the Citizenry (Ciudadanos – Partido de la Ciudadanía, C)</t>
+  </si>
+  <si>
+    <t>CPM - Compromise-We Can-It Is Time_x0002_Coalition</t>
+  </si>
+  <si>
+    <t>ECP - Together We Can</t>
+  </si>
+  <si>
+    <t>EHB - Basque Country United</t>
+  </si>
+  <si>
+    <t>P - We Can; Podemos  (Podemos, P)</t>
+  </si>
+  <si>
+    <t>PMAEU - We Can-In Tide-Anova-United Left</t>
+  </si>
+  <si>
+    <t>DL - Democracy and Freedom</t>
+  </si>
+  <si>
+    <t>JxCat - Together for Catalonia (Junts per Catalunya, JxCat)</t>
+  </si>
+  <si>
+    <t>NAplus - Navarre Addition</t>
+  </si>
+  <si>
+    <t>PAIS - "plus Country"</t>
+  </si>
+  <si>
+    <t>PP-FORO - People's Party FORO</t>
+  </si>
+  <si>
+    <t>PRC - Cantabrian Regionalist Party</t>
+  </si>
+  <si>
+    <t>TE - Exist Teruel</t>
+  </si>
+  <si>
+    <t>V - The Voice (Vox, V)</t>
   </si>
   <si>
     <t>1993</t>
@@ -119,6 +143,9 @@
   </si>
   <si>
     <t>2016</t>
+  </si>
+  <si>
+    <t>2019</t>
   </si>
 </sst>
 </file>
@@ -476,13 +503,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA9"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,10 +591,34 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:35">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -603,9 +654,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:35">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -641,9 +692,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -682,9 +733,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:35">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -720,9 +771,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:35">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -755,9 +806,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:35">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -795,10 +846,13 @@
       <c r="T7">
         <v>0</v>
       </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:35">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -818,28 +872,28 @@
       <c r="K8">
         <v>46</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>37</v>
-      </c>
-      <c r="V8">
-        <v>9</v>
       </c>
       <c r="W8">
         <v>9</v>
       </c>
       <c r="X8">
+        <v>9</v>
+      </c>
+      <c r="Y8">
         <v>2</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>39</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:35">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -856,26 +910,88 @@
       <c r="K9">
         <v>39</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>32</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>9</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>12</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>2</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>39</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>5</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
